--- a/data-manipulation/southeast-samples.xlsx
+++ b/data-manipulation/southeast-samples.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="128">
   <si>
     <t>OBJECTID</t>
   </si>
@@ -98,298 +98,313 @@
     <t>10</t>
   </si>
   <si>
+    <t>3769</t>
+  </si>
+  <si>
+    <t>2627</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>3080</t>
+    <t>1700</t>
+  </si>
+  <si>
+    <t>2610</t>
+  </si>
+  <si>
+    <t>2050</t>
   </si>
   <si>
     <t>2300</t>
   </si>
   <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>1850</t>
+  </si>
+  <si>
+    <t>Lightning</t>
+  </si>
+  <si>
+    <t>Debris Burn</t>
+  </si>
+  <si>
+    <t>Arson</t>
+  </si>
+  <si>
+    <t>Miscellaneou</t>
+  </si>
+  <si>
+    <t>1.75</t>
+  </si>
+  <si>
+    <t>&lt;Null&gt;</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>6.6</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>NORTHEAST</t>
+  </si>
+  <si>
+    <t>1900</t>
+  </si>
+  <si>
+    <t>2480</t>
+  </si>
+  <si>
+    <t>3206</t>
+  </si>
+  <si>
+    <t>2700</t>
+  </si>
+  <si>
+    <t>2080</t>
+  </si>
+  <si>
+    <t>2500</t>
+  </si>
+  <si>
+    <t>2169</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>2315</t>
+  </si>
+  <si>
+    <t>2274</t>
+  </si>
+  <si>
+    <t>1630</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>13.7</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>2220</t>
+  </si>
+  <si>
+    <t>2200</t>
+  </si>
+  <si>
+    <t>2092</t>
+  </si>
+  <si>
     <t>2400</t>
   </si>
   <si>
+    <t>1952</t>
+  </si>
+  <si>
+    <t>2341</t>
+  </si>
+  <si>
+    <t>2493</t>
+  </si>
+  <si>
+    <t>Undetermined</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>2040</t>
+  </si>
+  <si>
+    <t>2600</t>
+  </si>
+  <si>
+    <t>2340</t>
+  </si>
+  <si>
+    <t>2272</t>
+  </si>
+  <si>
+    <t>1780</t>
+  </si>
+  <si>
+    <t>1060</t>
+  </si>
+  <si>
+    <t>10.4</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>2590</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>3402</t>
+  </si>
+  <si>
+    <t>1966</t>
+  </si>
+  <si>
+    <t>2077</t>
+  </si>
+  <si>
+    <t>1574</t>
+  </si>
+  <si>
+    <t>Recreation</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>2.12</t>
+  </si>
+  <si>
+    <t>2.0299999999999998</t>
+  </si>
+  <si>
+    <t>1.89</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>2060</t>
+  </si>
+  <si>
+    <t>2360</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2347</t>
+  </si>
+  <si>
+    <t>1932</t>
+  </si>
+  <si>
+    <t>Railroad</t>
+  </si>
+  <si>
+    <t>Smoker</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>45.6</t>
+  </si>
+  <si>
+    <t>2636</t>
+  </si>
+  <si>
+    <t>2608</t>
+  </si>
+  <si>
+    <t>2396</t>
+  </si>
+  <si>
+    <t>2240</t>
+  </si>
+  <si>
+    <t>3735</t>
+  </si>
+  <si>
+    <t>2618</t>
+  </si>
+  <si>
     <t>2180</t>
   </si>
   <si>
-    <t>2077</t>
-  </si>
-  <si>
-    <t>2050</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2615</t>
-  </si>
-  <si>
-    <t>Recreation</t>
-  </si>
-  <si>
-    <t>Debris Burn</t>
-  </si>
-  <si>
-    <t>Arson</t>
-  </si>
-  <si>
-    <t>Lightning</t>
-  </si>
-  <si>
-    <t>Undetermined</t>
-  </si>
-  <si>
-    <t>Miscellaneou</t>
-  </si>
-  <si>
-    <t>&lt;Null&gt;</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>7.2</t>
-  </si>
-  <si>
-    <t>1.89</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Point</t>
-  </si>
-  <si>
-    <t>NORTHEAST</t>
-  </si>
-  <si>
-    <t>2160</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>1880</t>
-  </si>
-  <si>
-    <t>3794</t>
-  </si>
-  <si>
-    <t>1300</t>
-  </si>
-  <si>
-    <t>1625</t>
-  </si>
-  <si>
-    <t>3536</t>
-  </si>
-  <si>
-    <t>2374</t>
-  </si>
-  <si>
-    <t>1624</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>1.25</t>
-  </si>
-  <si>
-    <t>1.7</t>
+    <t>2279</t>
+  </si>
+  <si>
+    <t>Under Invest</t>
   </si>
   <si>
     <t>2.7</t>
   </si>
   <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>1900</t>
-  </si>
-  <si>
-    <t>1114</t>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>1.8</t>
   </si>
   <si>
     <t>1920</t>
   </si>
   <si>
-    <t>1467</t>
-  </si>
-  <si>
-    <t>2800</t>
-  </si>
-  <si>
-    <t>2350</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>22.7</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>2750</t>
-  </si>
-  <si>
-    <t>1700</t>
-  </si>
-  <si>
-    <t>2234</t>
-  </si>
-  <si>
-    <t>Under Invest</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>2590</t>
-  </si>
-  <si>
-    <t>1600</t>
-  </si>
-  <si>
-    <t>1760</t>
-  </si>
-  <si>
-    <t>1925</t>
-  </si>
-  <si>
-    <t>2200</t>
-  </si>
-  <si>
-    <t>Railroad</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>855</t>
-  </si>
-  <si>
-    <t>1330</t>
-  </si>
-  <si>
-    <t>2276</t>
-  </si>
-  <si>
-    <t>1950</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>1930</t>
-  </si>
-  <si>
-    <t>2250</t>
-  </si>
-  <si>
-    <t>6.5</t>
-  </si>
-  <si>
-    <t>3900</t>
-  </si>
-  <si>
-    <t>2396</t>
-  </si>
-  <si>
-    <t>3060</t>
-  </si>
-  <si>
-    <t>2080</t>
+    <t>2602</t>
+  </si>
+  <si>
+    <t>2215</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>1680</t>
+  </si>
+  <si>
+    <t>3200</t>
+  </si>
+  <si>
+    <t>1545</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>3.25</t>
   </si>
   <si>
     <t>1400</t>
   </si>
   <si>
-    <t>2260</t>
-  </si>
-  <si>
-    <t>2.9</t>
-  </si>
-  <si>
-    <t>2.2000000000000002</t>
-  </si>
-  <si>
-    <t>2744</t>
-  </si>
-  <si>
-    <t>2220</t>
-  </si>
-  <si>
-    <t>2279</t>
-  </si>
-  <si>
-    <t>2100</t>
-  </si>
-  <si>
-    <t>2710</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>1849</t>
+    <t>1550</t>
+  </si>
+  <si>
+    <t>1875</t>
+  </si>
+  <si>
+    <t>3938</t>
   </si>
   <si>
     <t>2110</t>
   </si>
   <si>
-    <t>2215</t>
-  </si>
-  <si>
-    <t>2727</t>
-  </si>
-  <si>
-    <t>3769</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>1.75</t>
-  </si>
-  <si>
-    <t>2315</t>
-  </si>
-  <si>
-    <t>1800</t>
-  </si>
-  <si>
-    <t>1890</t>
-  </si>
-  <si>
-    <t>2700</t>
-  </si>
-  <si>
-    <t>1780</t>
-  </si>
-  <si>
-    <t>2340</t>
-  </si>
-  <si>
-    <t>1640</t>
-  </si>
-  <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>3.25</t>
+    <t>3.1</t>
   </si>
 </sst>
 </file>
@@ -493,16 +508,16 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>8617.0</v>
+        <v>20094.0</v>
       </c>
       <c r="C2" t="n">
-        <v>32.0</v>
+        <v>38.0</v>
       </c>
       <c r="D2" t="n">
-        <v>23.0</v>
+        <v>40.0</v>
       </c>
       <c r="E2" t="n">
-        <v>11.0</v>
+        <v>27.0</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -511,31 +526,31 @@
         <v>34</v>
       </c>
       <c r="H2" t="n">
-        <v>6.6</v>
+        <v>1.75</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J2" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>48.28812</v>
+        <v>48.77674</v>
       </c>
       <c r="L2" t="n">
-        <v>-119.92559</v>
+        <v>-117.74761</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O2" t="n">
-        <v>346324.85000000003</v>
+        <v>531453.1500000005</v>
       </c>
       <c r="P2" t="n">
-        <v>141693.19999999992</v>
+        <v>195441.39999999964</v>
       </c>
     </row>
     <row r="3">
@@ -543,16 +558,16 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>14179.0</v>
+        <v>1584.0</v>
       </c>
       <c r="C3" t="n">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="D3" t="n">
-        <v>28.0</v>
+        <v>33.0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -561,31 +576,31 @@
         <v>35</v>
       </c>
       <c r="H3" t="n">
-        <v>7.0</v>
+        <v>2.6</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J3" t="n">
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>48.82685</v>
+        <v>48.73513</v>
       </c>
       <c r="L3" t="n">
-        <v>-119.24026</v>
+        <v>-118.67271</v>
       </c>
       <c r="M3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O3" t="n">
-        <v>404577.89999999944</v>
+        <v>452819.65000000043</v>
       </c>
       <c r="P3" t="n">
-        <v>200953.50000000003</v>
+        <v>190864.29999999978</v>
       </c>
     </row>
     <row r="4">
@@ -593,16 +608,16 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>5846.0</v>
+        <v>7640.0</v>
       </c>
       <c r="C4" t="n">
-        <v>23.0</v>
+        <v>33.0</v>
       </c>
       <c r="D4" t="n">
-        <v>43.0</v>
+        <v>20.0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.0</v>
+        <v>42.0</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -611,31 +626,31 @@
         <v>36</v>
       </c>
       <c r="H4" t="n">
-        <v>1.3</v>
+        <v>5.0</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J4" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="K4" t="n">
-        <v>47.48712</v>
+        <v>48.36141</v>
       </c>
       <c r="L4" t="n">
-        <v>-117.41935</v>
+        <v>-120.28798</v>
       </c>
       <c r="M4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O4" t="n">
-        <v>559355.2500000005</v>
+        <v>315521.6999999996</v>
       </c>
       <c r="P4" t="n">
-        <v>53583.199999999706</v>
+        <v>149755.09999999992</v>
       </c>
     </row>
     <row r="5">
@@ -643,16 +658,16 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>585.0</v>
+        <v>13796.0</v>
       </c>
       <c r="C5" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="D5" t="n">
         <v>43.0</v>
       </c>
       <c r="E5" t="n">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -661,31 +676,31 @@
         <v>37</v>
       </c>
       <c r="H5" t="n">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J5" t="n">
         <v>1.0</v>
       </c>
       <c r="K5" t="n">
-        <v>47.4942</v>
+        <v>47.77102</v>
       </c>
       <c r="L5" t="n">
-        <v>-117.30658</v>
+        <v>-117.38709</v>
       </c>
       <c r="M5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O5" t="n">
-        <v>568940.7000000003</v>
+        <v>562097.35</v>
       </c>
       <c r="P5" t="n">
-        <v>54361.99999999993</v>
+        <v>84812.2</v>
       </c>
     </row>
     <row r="6">
@@ -693,49 +708,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>14875.0</v>
+        <v>5985.0</v>
       </c>
       <c r="C6" t="n">
-        <v>23.0</v>
+        <v>32.0</v>
       </c>
       <c r="D6" t="n">
-        <v>42.0</v>
+        <v>22.0</v>
       </c>
       <c r="E6" t="n">
-        <v>14.0</v>
+        <v>34.0</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H6" t="n">
-        <v>7.2</v>
+        <v>3.0</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J6" t="n">
         <v>1.0</v>
       </c>
       <c r="K6" t="n">
-        <v>47.48458</v>
+        <v>48.23175</v>
       </c>
       <c r="L6" t="n">
-        <v>-117.46339</v>
+        <v>-120.06007</v>
       </c>
       <c r="M6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O6" t="n">
-        <v>555611.8499999996</v>
+        <v>334894.05000000034</v>
       </c>
       <c r="P6" t="n">
-        <v>53303.80000000013</v>
+        <v>135492.4999999998</v>
       </c>
     </row>
     <row r="7">
@@ -743,7 +758,7 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>12013.0</v>
+        <v>17410.0</v>
       </c>
       <c r="C7" t="n">
         <v>29.0</v>
@@ -752,40 +767,40 @@
         <v>43.0</v>
       </c>
       <c r="E7" t="n">
-        <v>32.0</v>
+        <v>14.0</v>
       </c>
       <c r="F7" t="s">
         <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H7" t="n">
-        <v>1.89</v>
+        <v>2.25</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J7" t="n">
         <v>1.0</v>
       </c>
       <c r="K7" t="n">
-        <v>47.96508</v>
+        <v>48.0159</v>
       </c>
       <c r="L7" t="n">
-        <v>-117.39563</v>
+        <v>-117.34694</v>
       </c>
       <c r="M7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O7" t="n">
-        <v>561371.4500000003</v>
+        <v>565510.0999999997</v>
       </c>
       <c r="P7" t="n">
-        <v>106158.80000000005</v>
+        <v>111749.00000000022</v>
       </c>
     </row>
     <row r="8">
@@ -793,49 +808,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>2232.0</v>
+        <v>12303.0</v>
       </c>
       <c r="C8" t="n">
-        <v>39.0</v>
+        <v>31.0</v>
       </c>
       <c r="D8" t="n">
-        <v>38.0</v>
+        <v>44.0</v>
       </c>
       <c r="E8" t="n">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="F8" t="s">
         <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H8" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="J8" t="n">
         <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>48.87681</v>
+        <v>48.17957</v>
       </c>
       <c r="L8" t="n">
-        <v>-117.95097</v>
+        <v>-117.30354</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O8" t="n">
-        <v>514167.55000000016</v>
+        <v>569199.1000000002</v>
       </c>
       <c r="P8" t="n">
-        <v>206449.0999999999</v>
+        <v>129752.69999999981</v>
       </c>
     </row>
     <row r="9">
@@ -843,49 +858,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>3504.0</v>
+        <v>13149.0</v>
       </c>
       <c r="C9" t="n">
-        <v>37.0</v>
+        <v>24.0</v>
       </c>
       <c r="D9" t="n">
-        <v>28.0</v>
+        <v>44.0</v>
       </c>
       <c r="E9" t="n">
-        <v>33.0</v>
+        <v>26.0</v>
       </c>
       <c r="F9" t="s">
         <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9" t="n">
-        <v>21.0</v>
+        <v>10.5</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J9" t="n">
         <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>48.65618</v>
+        <v>47.5418</v>
       </c>
       <c r="L9" t="n">
-        <v>-119.30036</v>
+        <v>-117.21433</v>
       </c>
       <c r="M9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O9" t="n">
-        <v>399469.4000000002</v>
+        <v>576781.9499999997</v>
       </c>
       <c r="P9" t="n">
-        <v>182179.7999999999</v>
+        <v>59598.000000000226</v>
       </c>
     </row>
     <row r="10">
@@ -893,49 +908,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>2986.0</v>
+        <v>5208.0</v>
       </c>
       <c r="C10" t="n">
-        <v>24.0</v>
+        <v>34.0</v>
       </c>
       <c r="D10" t="n">
-        <v>40.0</v>
+        <v>39.0</v>
       </c>
       <c r="E10" t="n">
-        <v>14.0</v>
+        <v>27.0</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H10" t="n">
-        <v>12.75</v>
+        <v>2.0</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>47.57469</v>
+        <v>48.41471</v>
       </c>
       <c r="L10" t="n">
-        <v>-117.71757</v>
+        <v>-117.8767</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O10" t="n">
-        <v>534006.5500000004</v>
+        <v>520480.50000000006</v>
       </c>
       <c r="P10" t="n">
-        <v>63215.89999999965</v>
+        <v>155618.09999999995</v>
       </c>
     </row>
     <row r="11">
@@ -943,49 +958,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>10614.0</v>
+        <v>3423.0</v>
       </c>
       <c r="C11" t="n">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
       <c r="D11" t="n">
-        <v>39.0</v>
+        <v>32.0</v>
       </c>
       <c r="E11" t="n">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H11" t="n">
-        <v>25.0</v>
+        <v>6.6</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>48.39297</v>
+        <v>48.97191</v>
       </c>
       <c r="L11" t="n">
-        <v>-117.91477</v>
+        <v>-118.76379</v>
       </c>
       <c r="M11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O11" t="n">
-        <v>517244.54999999964</v>
+        <v>445077.85</v>
       </c>
       <c r="P11" t="n">
-        <v>153226.6999999998</v>
+        <v>216910.10000000012</v>
       </c>
     </row>
   </sheetData>
@@ -1054,49 +1069,49 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>6304.0</v>
+        <v>14064.0</v>
       </c>
       <c r="C2" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="D2" t="n">
         <v>44.0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.0</v>
+        <v>19.0</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="H2" t="n">
-        <v>11.7</v>
+        <v>1.0</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J2" t="n">
         <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>47.59974</v>
+        <v>47.64784</v>
       </c>
       <c r="L2" t="n">
-        <v>-117.17683</v>
+        <v>-117.29093</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O2" t="n">
-        <v>579969.4500000004</v>
+        <v>570270.9499999997</v>
       </c>
       <c r="P2" t="n">
-        <v>65971.39999999967</v>
+        <v>71262.40000000024</v>
       </c>
     </row>
     <row r="3">
@@ -1104,49 +1119,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>19495.0</v>
+        <v>14895.0</v>
       </c>
       <c r="C3" t="n">
-        <v>33.0</v>
+        <v>37.0</v>
       </c>
       <c r="D3" t="n">
-        <v>25.0</v>
+        <v>38.0</v>
       </c>
       <c r="E3" t="n">
-        <v>16.0</v>
+        <v>9.0</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="J3" t="n">
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>48.3603</v>
+        <v>48.72397</v>
       </c>
       <c r="L3" t="n">
-        <v>-119.70943</v>
+        <v>-118.0301</v>
       </c>
       <c r="M3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O3" t="n">
-        <v>364698.4500000002</v>
+        <v>507441.4999999996</v>
       </c>
       <c r="P3" t="n">
-        <v>149633.00000000026</v>
+        <v>189636.70000000016</v>
       </c>
     </row>
     <row r="4">
@@ -1154,49 +1169,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>378.0</v>
+        <v>4593.0</v>
       </c>
       <c r="C4" t="n">
-        <v>32.0</v>
+        <v>36.0</v>
       </c>
       <c r="D4" t="n">
-        <v>44.0</v>
+        <v>38.0</v>
       </c>
       <c r="E4" t="n">
-        <v>5.0</v>
+        <v>21.0</v>
       </c>
       <c r="F4" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H4" t="n">
-        <v>20.3</v>
+        <v>3.0</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J4" t="n">
         <v>1.0</v>
       </c>
       <c r="K4" t="n">
-        <v>48.30486</v>
+        <v>48.69333</v>
       </c>
       <c r="L4" t="n">
-        <v>-117.2654</v>
+        <v>-118.024359</v>
       </c>
       <c r="M4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O4" t="n">
-        <v>572441.0</v>
+        <v>507929.48499999964</v>
       </c>
       <c r="P4" t="n">
-        <v>143534.59999999977</v>
+        <v>186266.30000000034</v>
       </c>
     </row>
     <row r="5">
@@ -1204,49 +1219,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>841.0</v>
+        <v>7246.0</v>
       </c>
       <c r="C5" t="n">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="D5" t="n">
-        <v>43.0</v>
+        <v>38.0</v>
       </c>
       <c r="E5" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="n">
         <v>2.0</v>
       </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="I5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.0</v>
-      </c>
       <c r="K5" t="n">
-        <v>47.69154</v>
+        <v>47.80827</v>
       </c>
       <c r="L5" t="n">
-        <v>-117.33859</v>
+        <v>-117.97836</v>
       </c>
       <c r="M5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O5" t="n">
-        <v>566219.8500000003</v>
+        <v>511839.40000000043</v>
       </c>
       <c r="P5" t="n">
-        <v>76069.40000000037</v>
+        <v>88909.70000000003</v>
       </c>
     </row>
     <row r="6">
@@ -1254,49 +1269,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>5175.0</v>
+        <v>5502.0</v>
       </c>
       <c r="C6" t="n">
-        <v>28.0</v>
+        <v>26.0</v>
       </c>
       <c r="D6" t="n">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
       <c r="E6" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="F6" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="H6" t="n">
-        <v>4.1</v>
+        <v>12.2</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J6" t="n">
         <v>1.0</v>
       </c>
       <c r="K6" t="n">
-        <v>47.92706</v>
+        <v>47.74593</v>
       </c>
       <c r="L6" t="n">
-        <v>-117.34497</v>
+        <v>-117.56356</v>
       </c>
       <c r="M6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O6" t="n">
-        <v>565677.5499999997</v>
+        <v>547097.4000000004</v>
       </c>
       <c r="P6" t="n">
-        <v>101976.5999999997</v>
+        <v>82052.30000000015</v>
       </c>
     </row>
     <row r="7">
@@ -1304,49 +1319,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>18396.0</v>
+        <v>16323.0</v>
       </c>
       <c r="C7" t="n">
-        <v>35.0</v>
+        <v>33.0</v>
       </c>
       <c r="D7" t="n">
-        <v>40.0</v>
+        <v>28.0</v>
       </c>
       <c r="E7" t="n">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
       <c r="F7" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="I7" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="J7" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="K7" t="n">
-        <v>48.5089</v>
+        <v>48.36559</v>
       </c>
       <c r="L7" t="n">
-        <v>-117.73922</v>
+        <v>-119.35729</v>
       </c>
       <c r="M7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O7" t="n">
-        <v>532166.2999999997</v>
+        <v>394630.34999999945</v>
       </c>
       <c r="P7" t="n">
-        <v>165978.99999999968</v>
+        <v>150214.8999999997</v>
       </c>
     </row>
     <row r="8">
@@ -1354,49 +1369,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>18843.0</v>
+        <v>14243.0</v>
       </c>
       <c r="C8" t="n">
-        <v>27.0</v>
+        <v>40.0</v>
       </c>
       <c r="D8" t="n">
-        <v>39.0</v>
+        <v>29.0</v>
       </c>
       <c r="E8" t="n">
-        <v>33.0</v>
+        <v>32.0</v>
       </c>
       <c r="F8" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="G8" t="s">
         <v>35</v>
       </c>
       <c r="H8" t="n">
-        <v>23.0</v>
+        <v>19.9</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J8" t="n">
         <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>47.79432</v>
+        <v>48.92043</v>
       </c>
       <c r="L8" t="n">
-        <v>-117.89837</v>
+        <v>-119.2003</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O8" t="n">
-        <v>518638.55</v>
+        <v>407974.5000000001</v>
       </c>
       <c r="P8" t="n">
-        <v>87375.1999999999</v>
+        <v>211247.30000000034</v>
       </c>
     </row>
     <row r="9">
@@ -1404,49 +1419,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>17745.0</v>
+        <v>6680.0</v>
       </c>
       <c r="C9" t="n">
-        <v>31.0</v>
+        <v>27.0</v>
       </c>
       <c r="D9" t="n">
-        <v>45.0</v>
+        <v>42.0</v>
       </c>
       <c r="E9" t="n">
         <v>28.0</v>
       </c>
       <c r="F9" t="s">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H9" t="n">
-        <v>2.0</v>
+        <v>2.8</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="J9" t="n">
         <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>48.1541</v>
+        <v>47.80711</v>
       </c>
       <c r="L9" t="n">
-        <v>-117.12063</v>
+        <v>-117.49995</v>
       </c>
       <c r="M9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O9" t="n">
-        <v>584746.4499999995</v>
+        <v>552504.2500000001</v>
       </c>
       <c r="P9" t="n">
-        <v>126950.99999999997</v>
+        <v>88782.10000000017</v>
       </c>
     </row>
     <row r="10">
@@ -1454,49 +1469,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>552.0</v>
+        <v>11781.0</v>
       </c>
       <c r="C10" t="n">
-        <v>37.0</v>
+        <v>26.0</v>
       </c>
       <c r="D10" t="n">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
       <c r="E10" t="n">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H10" t="n">
-        <v>1.7</v>
+        <v>2.0</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>48.71329</v>
+        <v>47.75764</v>
       </c>
       <c r="L10" t="n">
-        <v>-118.65651</v>
+        <v>-117.74683</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O10" t="n">
-        <v>454196.65000000026</v>
+        <v>531519.4499999997</v>
       </c>
       <c r="P10" t="n">
-        <v>188461.90000000008</v>
+        <v>83340.40000000023</v>
       </c>
     </row>
     <row r="11">
@@ -1504,49 +1519,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>14766.0</v>
+        <v>3505.0</v>
       </c>
       <c r="C11" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="D11" t="n">
-        <v>38.0</v>
+        <v>28.0</v>
       </c>
       <c r="E11" t="n">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H11" t="n">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="I11" t="s">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>48.57277</v>
+        <v>48.65618</v>
       </c>
       <c r="L11" t="n">
-        <v>-118.07024</v>
+        <v>-119.30036</v>
       </c>
       <c r="M11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O11" t="n">
-        <v>504029.60000000015</v>
+        <v>399469.4000000002</v>
       </c>
       <c r="P11" t="n">
-        <v>173004.69999999984</v>
+        <v>182179.7999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1615,49 +1630,49 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>8158.0</v>
+        <v>13923.0</v>
       </c>
       <c r="C2" t="n">
-        <v>39.0</v>
+        <v>21.0</v>
       </c>
       <c r="D2" t="n">
         <v>40.0</v>
       </c>
       <c r="E2" t="n">
-        <v>34.0</v>
+        <v>28.0</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H2" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J2" t="n">
         <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>48.84756</v>
+        <v>47.28015</v>
       </c>
       <c r="L2" t="n">
-        <v>-117.73465</v>
+        <v>-117.76614</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O2" t="n">
-        <v>532554.7499999999</v>
+        <v>529878.1000000006</v>
       </c>
       <c r="P2" t="n">
-        <v>203231.60000000015</v>
+        <v>30816.49999999989</v>
       </c>
     </row>
     <row r="3">
@@ -1665,49 +1680,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>7579.0</v>
+        <v>626.0</v>
       </c>
       <c r="C3" t="n">
-        <v>26.0</v>
+        <v>35.0</v>
       </c>
       <c r="D3" t="n">
-        <v>43.0</v>
+        <v>21.0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.0</v>
+        <v>25.0</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s">
         <v>37</v>
       </c>
       <c r="H3" t="n">
-        <v>1.2</v>
+        <v>46.6</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J3" t="n">
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>47.73903</v>
+        <v>48.50291</v>
       </c>
       <c r="L3" t="n">
-        <v>-117.4726</v>
+        <v>-120.14618</v>
       </c>
       <c r="M3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O3" t="n">
-        <v>554829.0</v>
+        <v>327574.6999999999</v>
       </c>
       <c r="P3" t="n">
-        <v>81293.29999999996</v>
+        <v>165320.1</v>
       </c>
     </row>
     <row r="4">
@@ -1715,49 +1730,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>125.0</v>
+        <v>845.0</v>
       </c>
       <c r="C4" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="D4" t="n">
-        <v>45.0</v>
+        <v>22.0</v>
       </c>
       <c r="E4" t="n">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" t="n">
-        <v>4.1</v>
+        <v>5.2</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J4" t="n">
         <v>1.0</v>
       </c>
       <c r="K4" t="n">
-        <v>48.0731</v>
+        <v>48.17713</v>
       </c>
       <c r="L4" t="n">
-        <v>-117.1082</v>
+        <v>-120.0331</v>
       </c>
       <c r="M4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O4" t="n">
-        <v>585803.0000000003</v>
+        <v>337186.4999999996</v>
       </c>
       <c r="P4" t="n">
-        <v>118040.99999999962</v>
+        <v>129484.2999999998</v>
       </c>
     </row>
     <row r="5">
@@ -1765,49 +1780,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>66.0</v>
+        <v>11996.0</v>
       </c>
       <c r="C5" t="n">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="D5" t="n">
-        <v>42.0</v>
+        <v>45.0</v>
       </c>
       <c r="E5" t="n">
-        <v>3.0</v>
+        <v>34.0</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H5" t="n">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="I5" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="J5" t="n">
         <v>1.0</v>
       </c>
       <c r="K5" t="n">
-        <v>47.68806</v>
+        <v>47.26502</v>
       </c>
       <c r="L5" t="n">
-        <v>-117.4777</v>
+        <v>-117.10725</v>
       </c>
       <c r="M5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O5" t="n">
-        <v>554395.5000000001</v>
+        <v>585883.7500000006</v>
       </c>
       <c r="P5" t="n">
-        <v>75686.6</v>
+        <v>29152.19999999998</v>
       </c>
     </row>
     <row r="6">
@@ -1815,49 +1830,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>15053.0</v>
+        <v>4404.0</v>
       </c>
       <c r="C6" t="n">
-        <v>37.0</v>
+        <v>32.0</v>
       </c>
       <c r="D6" t="n">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
       <c r="E6" t="n">
-        <v>3.0</v>
+        <v>32.0</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H6" t="n">
-        <v>1.7</v>
+        <v>6.0</v>
       </c>
       <c r="I6" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="J6" t="n">
         <v>1.0</v>
       </c>
       <c r="K6" t="n">
-        <v>48.73875</v>
+        <v>48.23533</v>
       </c>
       <c r="L6" t="n">
-        <v>-119.01448</v>
+        <v>-117.79391</v>
       </c>
       <c r="M6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O6" t="n">
-        <v>423769.1999999995</v>
+        <v>527517.6500000003</v>
       </c>
       <c r="P6" t="n">
-        <v>191262.50000000035</v>
+        <v>135886.29999999973</v>
       </c>
     </row>
     <row r="7">
@@ -1865,49 +1880,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>4545.0</v>
+        <v>5840.0</v>
       </c>
       <c r="C7" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="D7" t="n">
         <v>40.0</v>
       </c>
-      <c r="D7" t="n">
-        <v>27.0</v>
-      </c>
       <c r="E7" t="n">
-        <v>14.0</v>
+        <v>29.0</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H7" t="n">
-        <v>76.0</v>
+        <v>2.0</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J7" t="n">
         <v>1.0</v>
       </c>
       <c r="K7" t="n">
-        <v>48.96497</v>
+        <v>48.24608</v>
       </c>
       <c r="L7" t="n">
-        <v>-119.40521</v>
+        <v>-117.79423</v>
       </c>
       <c r="M7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O7" t="n">
-        <v>390557.15000000026</v>
+        <v>527490.4500000001</v>
       </c>
       <c r="P7" t="n">
-        <v>216146.7000000001</v>
+        <v>137068.7999999999</v>
       </c>
     </row>
     <row r="8">
@@ -1915,49 +1930,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>7181.0</v>
+        <v>5258.0</v>
       </c>
       <c r="C8" t="n">
-        <v>28.0</v>
+        <v>39.0</v>
       </c>
       <c r="D8" t="n">
-        <v>41.0</v>
+        <v>36.0</v>
       </c>
       <c r="E8" t="n">
-        <v>29.0</v>
+        <v>35.0</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" t="n">
-        <v>2.5</v>
+        <v>5.3</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J8" t="n">
         <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>47.89431</v>
+        <v>48.83394</v>
       </c>
       <c r="L8" t="n">
-        <v>-117.66196</v>
+        <v>-118.21431</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O8" t="n">
-        <v>538733.4000000006</v>
+        <v>491783.6500000002</v>
       </c>
       <c r="P8" t="n">
-        <v>98374.0999999997</v>
+        <v>201733.39999999982</v>
       </c>
     </row>
     <row r="9">
@@ -1965,49 +1980,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>911.0</v>
+        <v>13796.0</v>
       </c>
       <c r="C9" t="n">
-        <v>34.0</v>
+        <v>26.0</v>
       </c>
       <c r="D9" t="n">
-        <v>22.0</v>
+        <v>43.0</v>
       </c>
       <c r="E9" t="n">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
         <v>37</v>
       </c>
       <c r="H9" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="I9" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="J9" t="n">
         <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>48.42632</v>
+        <v>47.77102</v>
       </c>
       <c r="L9" t="n">
-        <v>-120.10321</v>
+        <v>-117.38709</v>
       </c>
       <c r="M9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O9" t="n">
-        <v>331227.1499999996</v>
+        <v>562097.35</v>
       </c>
       <c r="P9" t="n">
-        <v>156895.19999999966</v>
+        <v>84812.2</v>
       </c>
     </row>
     <row r="10">
@@ -2015,49 +2030,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>19520.0</v>
+        <v>2738.0</v>
       </c>
       <c r="C10" t="n">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="D10" t="n">
-        <v>42.0</v>
+        <v>44.0</v>
       </c>
       <c r="E10" t="n">
-        <v>33.0</v>
+        <v>32.0</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s">
         <v>35</v>
       </c>
       <c r="H10" t="n">
-        <v>1.0</v>
+        <v>18.0</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>47.61563</v>
+        <v>47.79292</v>
       </c>
       <c r="L10" t="n">
-        <v>-117.51015</v>
+        <v>-117.26951</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O10" t="n">
-        <v>551637.2500000003</v>
+        <v>572091.6500000003</v>
       </c>
       <c r="P10" t="n">
-        <v>67719.30000000034</v>
+        <v>87221.20000000026</v>
       </c>
     </row>
     <row r="11">
@@ -2065,49 +2080,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>101.0</v>
+        <v>10440.0</v>
       </c>
       <c r="C11" t="n">
-        <v>34.0</v>
+        <v>25.0</v>
       </c>
       <c r="D11" t="n">
-        <v>37.0</v>
+        <v>41.0</v>
       </c>
       <c r="E11" t="n">
-        <v>17.0</v>
+        <v>10.0</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H11" t="n">
-        <v>5.2</v>
+        <v>2.0</v>
       </c>
       <c r="I11" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="J11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K11" t="n">
-        <v>48.44755</v>
+        <v>47.67366</v>
       </c>
       <c r="L11" t="n">
-        <v>-118.17995</v>
+        <v>-117.61189</v>
       </c>
       <c r="M11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O11" t="n">
-        <v>494704.24999999953</v>
+        <v>542989.3499999997</v>
       </c>
       <c r="P11" t="n">
-        <v>159230.49999999997</v>
+        <v>74102.5999999998</v>
       </c>
     </row>
   </sheetData>
@@ -2176,49 +2191,49 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>12440.0</v>
+        <v>1046.0</v>
       </c>
       <c r="C2" t="n">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
       <c r="D2" t="n">
-        <v>43.0</v>
+        <v>42.0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.0</v>
+        <v>34.0</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="H2" t="n">
-        <v>39.0</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="J2" t="n">
         <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>47.95234</v>
+        <v>47.62661</v>
       </c>
       <c r="L2" t="n">
-        <v>-117.35065</v>
+        <v>-117.48905</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O2" t="n">
-        <v>565194.7499999999</v>
+        <v>553430.7499999995</v>
       </c>
       <c r="P2" t="n">
-        <v>104757.39999999995</v>
+        <v>68927.09999999993</v>
       </c>
     </row>
     <row r="3">
@@ -2226,49 +2241,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>17592.0</v>
+        <v>5846.0</v>
       </c>
       <c r="C3" t="n">
-        <v>37.0</v>
+        <v>23.0</v>
       </c>
       <c r="D3" t="n">
-        <v>27.0</v>
+        <v>43.0</v>
       </c>
       <c r="E3" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J3" t="n">
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>48.7287</v>
+        <v>47.48712</v>
       </c>
       <c r="L3" t="n">
-        <v>-119.46377</v>
+        <v>-117.41935</v>
       </c>
       <c r="M3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O3" t="n">
-        <v>385579.5500000003</v>
+        <v>559355.2500000005</v>
       </c>
       <c r="P3" t="n">
-        <v>190157.00000000038</v>
+        <v>53583.199999999706</v>
       </c>
     </row>
     <row r="4">
@@ -2276,49 +2291,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>6452.0</v>
+        <v>8354.0</v>
       </c>
       <c r="C4" t="n">
-        <v>25.0</v>
+        <v>38.0</v>
       </c>
       <c r="D4" t="n">
-        <v>42.0</v>
+        <v>26.0</v>
       </c>
       <c r="E4" t="n">
-        <v>25.0</v>
+        <v>5.0</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4" t="n">
-        <v>2.1</v>
+        <v>18.9</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J4" t="n">
         <v>1.0</v>
       </c>
       <c r="K4" t="n">
-        <v>47.63015</v>
+        <v>48.8159</v>
       </c>
       <c r="L4" t="n">
-        <v>-117.4461</v>
+        <v>-119.6021</v>
       </c>
       <c r="M4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O4" t="n">
-        <v>557081.4999999999</v>
+        <v>373821.5000000006</v>
       </c>
       <c r="P4" t="n">
-        <v>69316.50000000004</v>
+        <v>199748.9999999999</v>
       </c>
     </row>
     <row r="5">
@@ -2326,49 +2341,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>18896.0</v>
+        <v>8727.0</v>
       </c>
       <c r="C5" t="n">
-        <v>28.0</v>
+        <v>23.0</v>
       </c>
       <c r="D5" t="n">
-        <v>41.0</v>
+        <v>44.0</v>
       </c>
       <c r="E5" t="n">
-        <v>19.0</v>
+        <v>6.0</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H5" t="n">
-        <v>22.7</v>
+        <v>27.0</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="J5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K5" t="n">
-        <v>47.90883</v>
+        <v>47.50867</v>
       </c>
       <c r="L5" t="n">
-        <v>-117.67313</v>
+        <v>-117.28423</v>
       </c>
       <c r="M5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O5" t="n">
-        <v>537783.95</v>
+        <v>570840.4500000005</v>
       </c>
       <c r="P5" t="n">
-        <v>99971.30000000019</v>
+        <v>55953.70000000024</v>
       </c>
     </row>
     <row r="6">
@@ -2376,49 +2391,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>12530.0</v>
+        <v>6590.0</v>
       </c>
       <c r="C6" t="n">
-        <v>38.0</v>
+        <v>32.0</v>
       </c>
       <c r="D6" t="n">
-        <v>26.0</v>
+        <v>44.0</v>
       </c>
       <c r="E6" t="n">
-        <v>9.0</v>
+        <v>28.0</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H6" t="n">
-        <v>9.9</v>
+        <v>4.0</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K6" t="n">
-        <v>48.8126</v>
+        <v>48.23949</v>
       </c>
       <c r="L6" t="n">
-        <v>-119.58009</v>
+        <v>-117.24901</v>
       </c>
       <c r="M6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O6" t="n">
-        <v>375692.35000000015</v>
+        <v>573834.1500000001</v>
       </c>
       <c r="P6" t="n">
-        <v>199386.00000000038</v>
+        <v>136343.9000000004</v>
       </c>
     </row>
     <row r="7">
@@ -2426,49 +2441,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>13686.0</v>
+        <v>9603.0</v>
       </c>
       <c r="C7" t="n">
-        <v>26.0</v>
+        <v>33.0</v>
       </c>
       <c r="D7" t="n">
-        <v>45.0</v>
+        <v>25.0</v>
       </c>
       <c r="E7" t="n">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H7" t="n">
-        <v>44.0</v>
+        <v>2.5</v>
       </c>
       <c r="I7" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="J7" t="n">
         <v>1.0</v>
       </c>
       <c r="K7" t="n">
-        <v>47.75661</v>
+        <v>48.35316</v>
       </c>
       <c r="L7" t="n">
-        <v>-117.17359</v>
+        <v>-119.70386</v>
       </c>
       <c r="M7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O7" t="n">
-        <v>580244.8499999996</v>
+        <v>365171.8999999995</v>
       </c>
       <c r="P7" t="n">
-        <v>83227.10000000022</v>
+        <v>148847.6000000003</v>
       </c>
     </row>
     <row r="8">
@@ -2476,49 +2491,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>5307.0</v>
+        <v>220.0</v>
       </c>
       <c r="C8" t="n">
-        <v>34.0</v>
+        <v>29.0</v>
       </c>
       <c r="D8" t="n">
-        <v>22.0</v>
+        <v>41.0</v>
       </c>
       <c r="E8" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H8" t="n">
-        <v>2.0</v>
+        <v>13.7</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="J8" t="n">
         <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>48.45873</v>
+        <v>48.02827</v>
       </c>
       <c r="L8" t="n">
-        <v>-120.09244</v>
+        <v>-117.67965</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O8" t="n">
-        <v>332142.6000000003</v>
+        <v>537229.7500000005</v>
       </c>
       <c r="P8" t="n">
-        <v>160460.3000000003</v>
+        <v>113109.69999999991</v>
       </c>
     </row>
     <row r="9">
@@ -2526,49 +2541,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>20114.0</v>
+        <v>6304.0</v>
       </c>
       <c r="C9" t="n">
-        <v>35.0</v>
+        <v>24.0</v>
       </c>
       <c r="D9" t="n">
-        <v>40.0</v>
+        <v>44.0</v>
       </c>
       <c r="E9" t="n">
-        <v>18.0</v>
+        <v>1.0</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="n">
-        <v>17.0</v>
+        <v>11.7</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J9" t="n">
         <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>48.52756</v>
+        <v>47.59974</v>
       </c>
       <c r="L9" t="n">
-        <v>-117.80541</v>
+        <v>-117.17683</v>
       </c>
       <c r="M9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O9" t="n">
-        <v>526540.1500000005</v>
+        <v>579969.4500000004</v>
       </c>
       <c r="P9" t="n">
-        <v>168031.60000000012</v>
+        <v>65971.39999999967</v>
       </c>
     </row>
     <row r="10">
@@ -2576,49 +2591,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>11596.0</v>
+        <v>19501.0</v>
       </c>
       <c r="C10" t="n">
-        <v>35.0</v>
+        <v>27.0</v>
       </c>
       <c r="D10" t="n">
-        <v>37.0</v>
+        <v>44.0</v>
       </c>
       <c r="E10" t="n">
-        <v>29.0</v>
+        <v>10.0</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H10" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="J10" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>48.50184</v>
+        <v>47.84054</v>
       </c>
       <c r="L10" t="n">
-        <v>-118.19226</v>
+        <v>-117.23187</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O10" t="n">
-        <v>493657.8999999996</v>
+        <v>575291.0499999999</v>
       </c>
       <c r="P10" t="n">
-        <v>165202.40000000014</v>
+        <v>92459.39999999969</v>
       </c>
     </row>
     <row r="11">
@@ -2626,49 +2641,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>10088.0</v>
+        <v>19072.0</v>
       </c>
       <c r="C11" t="n">
-        <v>33.0</v>
+        <v>36.0</v>
       </c>
       <c r="D11" t="n">
-        <v>25.0</v>
+        <v>37.0</v>
       </c>
       <c r="E11" t="n">
-        <v>32.0</v>
+        <v>13.0</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H11" t="n">
-        <v>1.33</v>
+        <v>4.5</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>48.29913</v>
+        <v>48.61255</v>
       </c>
       <c r="L11" t="n">
-        <v>-119.70414</v>
+        <v>-118.10214</v>
       </c>
       <c r="M11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O11" t="n">
-        <v>365148.1000000004</v>
+        <v>501318.0999999995</v>
       </c>
       <c r="P11" t="n">
-        <v>142904.29999999978</v>
+        <v>177380.49999999988</v>
       </c>
     </row>
   </sheetData>
@@ -2737,49 +2752,49 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>15997.0</v>
+        <v>8812.0</v>
       </c>
       <c r="C2" t="n">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
       <c r="D2" t="n">
-        <v>43.0</v>
+        <v>42.0</v>
       </c>
       <c r="E2" t="n">
-        <v>13.0</v>
+        <v>8.0</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H2" t="n">
-        <v>27.0</v>
+        <v>1.9</v>
       </c>
       <c r="I2" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="J2" t="n">
         <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>47.92335</v>
+        <v>47.6774</v>
       </c>
       <c r="L2" t="n">
-        <v>-117.31831</v>
+        <v>-117.52063</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O2" t="n">
-        <v>567943.6500000003</v>
+        <v>550746.4500000003</v>
       </c>
       <c r="P2" t="n">
-        <v>101568.49999999991</v>
+        <v>74513.99999999985</v>
       </c>
     </row>
     <row r="3">
@@ -2787,49 +2802,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>12388.0</v>
+        <v>4729.0</v>
       </c>
       <c r="C3" t="n">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.0</v>
+        <v>40.0</v>
       </c>
       <c r="E3" t="n">
-        <v>28.0</v>
+        <v>32.0</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
       </c>
       <c r="H3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="J3" t="n">
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>48.15789</v>
+        <v>48.05808</v>
       </c>
       <c r="L3" t="n">
-        <v>-119.96265</v>
+        <v>-117.78216</v>
       </c>
       <c r="M3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O3" t="n">
-        <v>343174.7500000003</v>
+        <v>528516.3999999996</v>
       </c>
       <c r="P3" t="n">
-        <v>127367.9000000002</v>
+        <v>116388.79999999965</v>
       </c>
     </row>
     <row r="4">
@@ -2837,49 +2852,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>2753.0</v>
+        <v>7686.0</v>
       </c>
       <c r="C4" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E4" t="n">
         <v>30.0</v>
       </c>
-      <c r="D4" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4.0</v>
-      </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H4" t="n">
-        <v>2.9</v>
+        <v>35.0</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J4" t="n">
         <v>4.0</v>
       </c>
       <c r="K4" t="n">
-        <v>48.12993</v>
+        <v>48.345138</v>
       </c>
       <c r="L4" t="n">
-        <v>-120.08763</v>
+        <v>-120.501967</v>
       </c>
       <c r="M4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O4" t="n">
-        <v>332551.4499999996</v>
+        <v>297332.8050000006</v>
       </c>
       <c r="P4" t="n">
-        <v>124292.30000000018</v>
+        <v>147965.17999999985</v>
       </c>
     </row>
     <row r="5">
@@ -2887,49 +2902,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>17442.0</v>
+        <v>12849.0</v>
       </c>
       <c r="C5" t="n">
-        <v>34.0</v>
+        <v>27.0</v>
       </c>
       <c r="D5" t="n">
-        <v>37.0</v>
+        <v>36.0</v>
       </c>
       <c r="E5" t="n">
-        <v>13.0</v>
+        <v>27.0</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" t="n">
-        <v>7.75</v>
+        <v>42.0</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J5" t="n">
         <v>1.0</v>
       </c>
       <c r="K5" t="n">
-        <v>48.44319</v>
+        <v>47.81192</v>
       </c>
       <c r="L5" t="n">
-        <v>-118.09266</v>
+        <v>-118.25125</v>
       </c>
       <c r="M5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O5" t="n">
-        <v>502123.90000000043</v>
+        <v>488643.7500000001</v>
       </c>
       <c r="P5" t="n">
-        <v>158750.90000000014</v>
+        <v>89311.20000000007</v>
       </c>
     </row>
     <row r="6">
@@ -2937,49 +2952,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>16286.0</v>
+        <v>10614.0</v>
       </c>
       <c r="C6" t="n">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
       <c r="D6" t="n">
-        <v>42.0</v>
+        <v>39.0</v>
       </c>
       <c r="E6" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H6" t="n">
-        <v>1.9</v>
+        <v>25.0</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="J6" t="n">
         <v>1.0</v>
       </c>
       <c r="K6" t="n">
-        <v>47.59636</v>
+        <v>48.39297</v>
       </c>
       <c r="L6" t="n">
-        <v>-117.49985</v>
+        <v>-117.91477</v>
       </c>
       <c r="M6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O6" t="n">
-        <v>552512.7500000005</v>
+        <v>517244.54999999964</v>
       </c>
       <c r="P6" t="n">
-        <v>65599.59999999969</v>
+        <v>153226.6999999998</v>
       </c>
     </row>
     <row r="7">
@@ -2987,49 +3002,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>7204.0</v>
+        <v>3130.0</v>
       </c>
       <c r="C7" t="n">
-        <v>27.0</v>
+        <v>34.0</v>
       </c>
       <c r="D7" t="n">
-        <v>44.0</v>
+        <v>22.0</v>
       </c>
       <c r="E7" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="n">
         <v>2.0</v>
       </c>
-      <c r="F7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.9</v>
-      </c>
       <c r="I7" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="J7" t="n">
         <v>1.0</v>
       </c>
       <c r="K7" t="n">
-        <v>47.86567</v>
+        <v>48.455</v>
       </c>
       <c r="L7" t="n">
-        <v>-117.21037</v>
+        <v>-120.14133</v>
       </c>
       <c r="M7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O7" t="n">
-        <v>577118.5500000002</v>
+        <v>327986.9500000003</v>
       </c>
       <c r="P7" t="n">
-        <v>95223.70000000016</v>
+        <v>160049.99999999983</v>
       </c>
     </row>
     <row r="8">
@@ -3037,49 +3052,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>3504.0</v>
+        <v>1632.0</v>
       </c>
       <c r="C8" t="n">
-        <v>37.0</v>
+        <v>29.0</v>
       </c>
       <c r="D8" t="n">
-        <v>28.0</v>
+        <v>41.0</v>
       </c>
       <c r="E8" t="n">
-        <v>33.0</v>
+        <v>13.0</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H8" t="n">
-        <v>21.0</v>
+        <v>4.0</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="J8" t="n">
         <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>48.65618</v>
+        <v>48.01689</v>
       </c>
       <c r="L8" t="n">
-        <v>-119.30036</v>
+        <v>-117.58518</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O8" t="n">
-        <v>399469.4000000002</v>
+        <v>545259.7000000005</v>
       </c>
       <c r="P8" t="n">
-        <v>182179.7999999999</v>
+        <v>111857.89999999962</v>
       </c>
     </row>
     <row r="9">
@@ -3087,49 +3102,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>16200.0</v>
+        <v>1615.0</v>
       </c>
       <c r="C9" t="n">
-        <v>25.0</v>
+        <v>29.0</v>
       </c>
       <c r="D9" t="n">
-        <v>42.0</v>
+        <v>44.0</v>
       </c>
       <c r="E9" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="H9" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="I9" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="J9" t="n">
         <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>47.65551</v>
+        <v>48.00471</v>
       </c>
       <c r="L9" t="n">
-        <v>-117.46739</v>
+        <v>-117.28154</v>
       </c>
       <c r="M9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O9" t="n">
-        <v>555271.8500000004</v>
+        <v>571069.0999999994</v>
       </c>
       <c r="P9" t="n">
-        <v>72106.09999999996</v>
+        <v>110518.10000000031</v>
       </c>
     </row>
     <row r="10">
@@ -3137,49 +3152,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>16231.0</v>
+        <v>6774.0</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
       </c>
       <c r="D10" t="n">
-        <v>40.0</v>
+        <v>44.0</v>
       </c>
       <c r="E10" t="n">
-        <v>11.0</v>
+        <v>23.0</v>
       </c>
       <c r="F10" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H10" t="n">
-        <v>24.6</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>48.29336</v>
+        <v>48.26207</v>
       </c>
       <c r="L10" t="n">
-        <v>-117.73455</v>
+        <v>-117.21167</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O10" t="n">
-        <v>532563.2500000001</v>
+        <v>577008.0500000002</v>
       </c>
       <c r="P10" t="n">
-        <v>142269.59999999998</v>
+        <v>138827.70000000016</v>
       </c>
     </row>
     <row r="11">
@@ -3187,49 +3202,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>16068.0</v>
+        <v>11324.0</v>
       </c>
       <c r="C11" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="D11" t="n">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
       <c r="E11" t="n">
-        <v>36.0</v>
+        <v>2.0</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>18.0</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>47.52378</v>
+        <v>47.69592</v>
       </c>
       <c r="L11" t="n">
-        <v>-117.45206</v>
+        <v>-117.72511</v>
       </c>
       <c r="M11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O11" t="n">
-        <v>556574.8999999998</v>
+        <v>533365.6499999999</v>
       </c>
       <c r="P11" t="n">
-        <v>57615.800000000236</v>
+        <v>76551.20000000011</v>
       </c>
     </row>
   </sheetData>
@@ -3298,49 +3313,49 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>1221.0</v>
+        <v>7640.0</v>
       </c>
       <c r="C2" t="n">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="D2" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E2" t="n">
         <v>42.0</v>
       </c>
-      <c r="E2" t="n">
-        <v>30.0</v>
-      </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H2" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J2" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="K2" t="n">
-        <v>48.15659</v>
+        <v>48.36141</v>
       </c>
       <c r="L2" t="n">
-        <v>-117.55872</v>
+        <v>-120.28798</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O2" t="n">
-        <v>547508.8000000005</v>
+        <v>315521.6999999996</v>
       </c>
       <c r="P2" t="n">
-        <v>127224.90000000015</v>
+        <v>149755.09999999992</v>
       </c>
     </row>
     <row r="3">
@@ -3348,49 +3363,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>20189.0</v>
+        <v>18788.0</v>
       </c>
       <c r="C3" t="n">
-        <v>36.0</v>
+        <v>21.0</v>
       </c>
       <c r="D3" t="n">
         <v>39.0</v>
       </c>
       <c r="E3" t="n">
-        <v>29.0</v>
+        <v>7.0</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="H3" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J3" t="n">
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>48.59262</v>
+        <v>47.32119</v>
       </c>
       <c r="L3" t="n">
-        <v>-117.93376</v>
+        <v>-117.94895</v>
       </c>
       <c r="M3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O3" t="n">
-        <v>515630.39999999944</v>
+        <v>514339.2500000003</v>
       </c>
       <c r="P3" t="n">
-        <v>175188.19999999963</v>
+        <v>35330.900000000154</v>
       </c>
     </row>
     <row r="4">
@@ -3398,49 +3413,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>14274.0</v>
+        <v>2232.0</v>
       </c>
       <c r="C4" t="n">
-        <v>27.0</v>
+        <v>39.0</v>
       </c>
       <c r="D4" t="n">
-        <v>35.0</v>
+        <v>38.0</v>
       </c>
       <c r="E4" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H4" t="n">
-        <v>1.2</v>
+        <v>8.0</v>
       </c>
       <c r="I4" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="J4" t="n">
         <v>1.0</v>
       </c>
       <c r="K4" t="n">
-        <v>47.83725</v>
+        <v>48.87681</v>
       </c>
       <c r="L4" t="n">
-        <v>-118.34216</v>
+        <v>-117.95097</v>
       </c>
       <c r="M4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O4" t="n">
-        <v>480916.39999999944</v>
+        <v>514167.55000000016</v>
       </c>
       <c r="P4" t="n">
-        <v>92097.49999999971</v>
+        <v>206449.0999999999</v>
       </c>
     </row>
     <row r="5">
@@ -3448,49 +3463,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>20114.0</v>
+        <v>4888.0</v>
       </c>
       <c r="C5" t="n">
-        <v>35.0</v>
+        <v>23.0</v>
       </c>
       <c r="D5" t="n">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
       <c r="E5" t="n">
-        <v>18.0</v>
+        <v>10.0</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
         <v>35</v>
       </c>
       <c r="H5" t="n">
-        <v>17.0</v>
+        <v>10.4</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="J5" t="n">
         <v>1.0</v>
       </c>
       <c r="K5" t="n">
-        <v>48.52756</v>
+        <v>47.49441</v>
       </c>
       <c r="L5" t="n">
-        <v>-117.80541</v>
+        <v>-117.34962</v>
       </c>
       <c r="M5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O5" t="n">
-        <v>526540.1500000005</v>
+        <v>565282.2999999998</v>
       </c>
       <c r="P5" t="n">
-        <v>168031.60000000012</v>
+        <v>54385.100000000224</v>
       </c>
     </row>
     <row r="6">
@@ -3498,49 +3513,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>7856.0</v>
+        <v>13057.0</v>
       </c>
       <c r="C6" t="n">
-        <v>27.0</v>
+        <v>32.0</v>
       </c>
       <c r="D6" t="n">
-        <v>44.0</v>
+        <v>40.0</v>
       </c>
       <c r="E6" t="n">
-        <v>15.0</v>
+        <v>22.0</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H6" t="n">
-        <v>2.0</v>
+        <v>2.5</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="J6" t="n">
         <v>1.0</v>
       </c>
       <c r="K6" t="n">
-        <v>47.85154</v>
+        <v>48.25725</v>
       </c>
       <c r="L6" t="n">
-        <v>-117.23195</v>
+        <v>-117.74536</v>
       </c>
       <c r="M6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O6" t="n">
-        <v>575284.2500000002</v>
+        <v>531644.3999999996</v>
       </c>
       <c r="P6" t="n">
-        <v>93669.4</v>
+        <v>138297.4999999999</v>
       </c>
     </row>
     <row r="7">
@@ -3548,49 +3563,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>8083.0</v>
+        <v>2588.0</v>
       </c>
       <c r="C7" t="n">
-        <v>27.0</v>
+        <v>24.0</v>
       </c>
       <c r="D7" t="n">
-        <v>44.0</v>
+        <v>38.0</v>
       </c>
       <c r="E7" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H7" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" t="n">
         <v>2.0</v>
       </c>
-      <c r="I7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.0</v>
-      </c>
       <c r="K7" t="n">
-        <v>47.83688</v>
+        <v>47.57829</v>
       </c>
       <c r="L7" t="n">
-        <v>-117.24275</v>
+        <v>-118.00213</v>
       </c>
       <c r="M7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O7" t="n">
-        <v>574366.2499999999</v>
+        <v>509818.95000000054</v>
       </c>
       <c r="P7" t="n">
-        <v>92056.80000000008</v>
+        <v>63611.90000000029</v>
       </c>
     </row>
     <row r="8">
@@ -3598,49 +3613,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>15164.0</v>
+        <v>2755.0</v>
       </c>
       <c r="C8" t="n">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
       <c r="D8" t="n">
-        <v>34.0</v>
+        <v>40.0</v>
       </c>
       <c r="E8" t="n">
-        <v>32.0</v>
+        <v>20.0</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H8" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K8" t="n">
-        <v>48.14212</v>
+        <v>47.55652</v>
       </c>
       <c r="L8" t="n">
-        <v>-118.55221</v>
+        <v>-117.78743</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O8" t="n">
-        <v>463062.1499999998</v>
+        <v>528068.45</v>
       </c>
       <c r="P8" t="n">
-        <v>125633.19999999984</v>
+        <v>61217.199999999895</v>
       </c>
     </row>
     <row r="9">
@@ -3648,49 +3663,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>2232.0</v>
+        <v>10011.0</v>
       </c>
       <c r="C9" t="n">
-        <v>39.0</v>
+        <v>25.0</v>
       </c>
       <c r="D9" t="n">
-        <v>38.0</v>
+        <v>42.0</v>
       </c>
       <c r="E9" t="n">
-        <v>14.0</v>
+        <v>36.0</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="H9" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J9" t="n">
         <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>48.87681</v>
+        <v>47.61559</v>
       </c>
       <c r="L9" t="n">
-        <v>-117.95097</v>
+        <v>-117.4513</v>
       </c>
       <c r="M9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O9" t="n">
-        <v>514167.55000000016</v>
+        <v>556639.4999999998</v>
       </c>
       <c r="P9" t="n">
-        <v>206449.0999999999</v>
+        <v>67714.89999999972</v>
       </c>
     </row>
     <row r="10">
@@ -3698,49 +3713,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>4012.0</v>
+        <v>18843.0</v>
       </c>
       <c r="C10" t="n">
-        <v>22.0</v>
+        <v>27.0</v>
       </c>
       <c r="D10" t="n">
         <v>39.0</v>
       </c>
       <c r="E10" t="n">
-        <v>26.0</v>
+        <v>33.0</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>23.0</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>47.36771</v>
+        <v>47.79432</v>
       </c>
       <c r="L10" t="n">
-        <v>-117.85247</v>
+        <v>-117.89837</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O10" t="n">
-        <v>522540.0500000003</v>
+        <v>518638.55</v>
       </c>
       <c r="P10" t="n">
-        <v>40448.10000000027</v>
+        <v>87375.1999999999</v>
       </c>
     </row>
     <row r="11">
@@ -3748,49 +3763,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>13807.0</v>
+        <v>19816.0</v>
       </c>
       <c r="C11" t="n">
-        <v>25.0</v>
+        <v>37.0</v>
       </c>
       <c r="D11" t="n">
-        <v>42.0</v>
+        <v>27.0</v>
       </c>
       <c r="E11" t="n">
-        <v>4.0</v>
+        <v>29.0</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H11" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="I11" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>47.69902</v>
+        <v>48.67463</v>
       </c>
       <c r="L11" t="n">
-        <v>-117.4994</v>
+        <v>-119.46832</v>
       </c>
       <c r="M11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O11" t="n">
-        <v>552551.0000000005</v>
+        <v>385192.7999999995</v>
       </c>
       <c r="P11" t="n">
-        <v>76892.1999999997</v>
+        <v>184209.30000000005</v>
       </c>
     </row>
   </sheetData>
@@ -3859,49 +3874,49 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>3063.0</v>
+        <v>5928.0</v>
       </c>
       <c r="C2" t="n">
-        <v>29.0</v>
+        <v>25.0</v>
       </c>
       <c r="D2" t="n">
-        <v>41.0</v>
+        <v>45.0</v>
       </c>
       <c r="E2" t="n">
-        <v>19.0</v>
+        <v>25.0</v>
       </c>
       <c r="F2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I2" t="s">
         <v>83</v>
       </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>91</v>
-      </c>
       <c r="J2" t="n">
         <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>47.99951</v>
+        <v>47.62929</v>
       </c>
       <c r="L2" t="n">
-        <v>-117.69031</v>
+        <v>-117.0492</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O2" t="n">
-        <v>536323.6500000003</v>
+        <v>590818.0000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>109946.1000000001</v>
+        <v>69221.89999999972</v>
       </c>
     </row>
     <row r="3">
@@ -3909,49 +3924,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>1664.0</v>
+        <v>7568.0</v>
       </c>
       <c r="C3" t="n">
-        <v>35.0</v>
+        <v>40.0</v>
       </c>
       <c r="D3" t="n">
-        <v>26.0</v>
+        <v>32.0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.0</v>
+        <v>2.0</v>
       </c>
       <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I3" t="s">
         <v>84</v>
       </c>
-      <c r="G3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>40</v>
-      </c>
       <c r="J3" t="n">
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>48.50197</v>
+        <v>48.99715</v>
       </c>
       <c r="L3" t="n">
-        <v>-119.51337</v>
+        <v>-118.7367</v>
       </c>
       <c r="M3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O3" t="n">
-        <v>381363.55000000045</v>
+        <v>447380.50000000006</v>
       </c>
       <c r="P3" t="n">
-        <v>165216.7</v>
+        <v>219686.49999999977</v>
       </c>
     </row>
     <row r="4">
@@ -3959,49 +3974,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>17661.0</v>
+        <v>16107.0</v>
       </c>
       <c r="C4" t="n">
-        <v>26.0</v>
+        <v>32.0</v>
       </c>
       <c r="D4" t="n">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="E4" t="n">
-        <v>33.0</v>
+        <v>7.0</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
       </c>
       <c r="H4" t="n">
-        <v>1.8</v>
+        <v>2.0</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K4" t="n">
-        <v>47.71015</v>
+        <v>48.29245</v>
       </c>
       <c r="L4" t="n">
-        <v>-117.63359</v>
+        <v>-117.82154</v>
       </c>
       <c r="M4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O4" t="n">
-        <v>541144.8500000002</v>
+        <v>525169.1000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>78116.49999999985</v>
+        <v>142169.50000000026</v>
       </c>
     </row>
     <row r="5">
@@ -4009,49 +4024,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>11021.0</v>
+        <v>5356.0</v>
       </c>
       <c r="C5" t="n">
-        <v>30.0</v>
+        <v>39.0</v>
       </c>
       <c r="D5" t="n">
-        <v>44.0</v>
+        <v>32.0</v>
       </c>
       <c r="E5" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H5" t="n">
-        <v>2.5</v>
+        <v>2.03</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="J5" t="n">
         <v>1.0</v>
       </c>
       <c r="K5" t="n">
-        <v>48.11313</v>
+        <v>48.91803</v>
       </c>
       <c r="L5" t="n">
-        <v>-117.25424</v>
+        <v>-118.73692</v>
       </c>
       <c r="M5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O5" t="n">
-        <v>573389.6000000003</v>
+        <v>447361.80000000016</v>
       </c>
       <c r="P5" t="n">
-        <v>122444.2999999998</v>
+        <v>210983.3000000002</v>
       </c>
     </row>
     <row r="6">
@@ -4059,49 +4074,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>18541.0</v>
+        <v>16609.0</v>
       </c>
       <c r="C6" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="D6" t="n">
         <v>26.0</v>
       </c>
-      <c r="D6" t="n">
-        <v>43.0</v>
-      </c>
       <c r="E6" t="n">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J6" t="n">
         <v>1.0</v>
       </c>
       <c r="K6" t="n">
-        <v>47.75276</v>
+        <v>48.94639</v>
       </c>
       <c r="L6" t="n">
-        <v>-117.36039</v>
+        <v>-119.60174</v>
       </c>
       <c r="M6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O6" t="n">
-        <v>564366.8500000004</v>
+        <v>373852.09999999945</v>
       </c>
       <c r="P6" t="n">
-        <v>82803.60000000022</v>
+        <v>214102.9000000001</v>
       </c>
     </row>
     <row r="7">
@@ -4109,49 +4124,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>6511.0</v>
+        <v>1245.0</v>
       </c>
       <c r="C7" t="n">
-        <v>33.0</v>
+        <v>30.0</v>
       </c>
       <c r="D7" t="n">
-        <v>21.0</v>
+        <v>42.0</v>
       </c>
       <c r="E7" t="n">
-        <v>9.0</v>
+        <v>32.0</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H7" t="n">
-        <v>1.5</v>
+        <v>5.56</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J7" t="n">
         <v>1.0</v>
       </c>
       <c r="K7" t="n">
-        <v>48.37608</v>
+        <v>48.06048</v>
       </c>
       <c r="L7" t="n">
-        <v>-120.2123</v>
+        <v>-117.54238</v>
       </c>
       <c r="M7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O7" t="n">
-        <v>321954.50000000006</v>
+        <v>548897.7000000005</v>
       </c>
       <c r="P7" t="n">
-        <v>151368.8000000002</v>
+        <v>116652.79999999981</v>
       </c>
     </row>
     <row r="8">
@@ -4159,49 +4174,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>18346.0</v>
+        <v>14474.0</v>
       </c>
       <c r="C8" t="n">
-        <v>25.0</v>
+        <v>38.0</v>
       </c>
       <c r="D8" t="n">
-        <v>45.0</v>
+        <v>34.0</v>
       </c>
       <c r="E8" t="n">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H8" t="n">
-        <v>8.0</v>
+        <v>2.6</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="J8" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="K8" t="n">
-        <v>47.62237</v>
+        <v>48.75694</v>
       </c>
       <c r="L8" t="n">
-        <v>-117.14033</v>
+        <v>-118.55332</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O8" t="n">
-        <v>583071.9499999995</v>
+        <v>462967.80000000005</v>
       </c>
       <c r="P8" t="n">
-        <v>68460.69999999962</v>
+        <v>193263.40000000002</v>
       </c>
     </row>
     <row r="9">
@@ -4209,49 +4224,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>9867.0</v>
+        <v>12013.0</v>
       </c>
       <c r="C9" t="n">
         <v>29.0</v>
       </c>
       <c r="D9" t="n">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
       <c r="E9" t="n">
-        <v>22.0</v>
+        <v>32.0</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="H9" t="n">
-        <v>4.0</v>
+        <v>1.89</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="J9" t="n">
         <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>47.99097</v>
+        <v>47.96508</v>
       </c>
       <c r="L9" t="n">
-        <v>-117.74981</v>
+        <v>-117.39563</v>
       </c>
       <c r="M9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O9" t="n">
-        <v>531266.1500000003</v>
+        <v>561371.4500000003</v>
       </c>
       <c r="P9" t="n">
-        <v>109006.69999999969</v>
+        <v>106158.80000000005</v>
       </c>
     </row>
     <row r="10">
@@ -4259,49 +4274,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>15118.0</v>
+        <v>3882.0</v>
       </c>
       <c r="C10" t="n">
-        <v>25.0</v>
+        <v>39.0</v>
       </c>
       <c r="D10" t="n">
-        <v>44.0</v>
+        <v>26.0</v>
       </c>
       <c r="E10" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H10" t="n">
-        <v>4.5</v>
+        <v>1.06</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>47.67344</v>
+        <v>48.90651</v>
       </c>
       <c r="L10" t="n">
-        <v>-117.23161</v>
+        <v>-119.61308</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O10" t="n">
-        <v>575313.1499999997</v>
+        <v>372888.2000000003</v>
       </c>
       <c r="P10" t="n">
-        <v>74078.39999999994</v>
+        <v>209716.0999999997</v>
       </c>
     </row>
     <row r="11">
@@ -4309,49 +4324,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>5207.0</v>
+        <v>7716.0</v>
       </c>
       <c r="C11" t="n">
-        <v>30.0</v>
+        <v>21.0</v>
       </c>
       <c r="D11" t="n">
-        <v>35.0</v>
+        <v>38.0</v>
       </c>
       <c r="E11" t="n">
-        <v>24.0</v>
+        <v>29.0</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="H11" t="n">
-        <v>18.5</v>
+        <v>1.9</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J11" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>48.08448</v>
+        <v>47.28439</v>
       </c>
       <c r="L11" t="n">
-        <v>-118.33658</v>
+        <v>-118.04001</v>
       </c>
       <c r="M11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O11" t="n">
-        <v>481390.7000000002</v>
+        <v>506599.15000000043</v>
       </c>
       <c r="P11" t="n">
-        <v>119292.79999999992</v>
+        <v>31282.900000000212</v>
       </c>
     </row>
   </sheetData>
@@ -4420,49 +4435,49 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>2854.0</v>
+        <v>3570.0</v>
       </c>
       <c r="C2" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="D2" t="n">
-        <v>29.0</v>
+        <v>27.0</v>
       </c>
       <c r="E2" t="n">
-        <v>34.0</v>
+        <v>3.0</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H2" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="J2" t="n">
         <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>48.57767</v>
+        <v>48.73996</v>
       </c>
       <c r="L2" t="n">
-        <v>-119.17642</v>
+        <v>-119.42556</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O2" t="n">
-        <v>410004.30000000057</v>
+        <v>388827.3999999996</v>
       </c>
       <c r="P2" t="n">
-        <v>173543.69999999975</v>
+        <v>191395.60000000038</v>
       </c>
     </row>
     <row r="3">
@@ -4470,49 +4485,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>7450.0</v>
+        <v>14936.0</v>
       </c>
       <c r="C3" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="D3" t="n">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
       <c r="E3" t="n">
-        <v>8.0</v>
+        <v>28.0</v>
       </c>
       <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
         <v>93</v>
       </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
       <c r="H3" t="n">
-        <v>4.0</v>
+        <v>20.0</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K3" t="n">
-        <v>47.50932</v>
+        <v>47.63001</v>
       </c>
       <c r="L3" t="n">
-        <v>-117.78204</v>
+        <v>-118.2725</v>
       </c>
       <c r="M3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O3" t="n">
-        <v>528526.6000000004</v>
+        <v>486837.5000000005</v>
       </c>
       <c r="P3" t="n">
-        <v>56025.200000000266</v>
+        <v>69301.09999999985</v>
       </c>
     </row>
     <row r="4">
@@ -4520,49 +4535,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>12587.0</v>
+        <v>14064.0</v>
       </c>
       <c r="C4" t="n">
-        <v>36.0</v>
+        <v>25.0</v>
       </c>
       <c r="D4" t="n">
-        <v>39.0</v>
+        <v>44.0</v>
       </c>
       <c r="E4" t="n">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="H4" t="n">
-        <v>2.2</v>
+        <v>1.0</v>
       </c>
       <c r="I4" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="J4" t="n">
         <v>1.0</v>
       </c>
       <c r="K4" t="n">
-        <v>48.61794</v>
+        <v>47.64784</v>
       </c>
       <c r="L4" t="n">
-        <v>-117.83814</v>
+        <v>-117.29093</v>
       </c>
       <c r="M4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O4" t="n">
-        <v>523758.1000000004</v>
+        <v>570270.9499999997</v>
       </c>
       <c r="P4" t="n">
-        <v>177973.3999999997</v>
+        <v>71262.40000000024</v>
       </c>
     </row>
     <row r="5">
@@ -4570,49 +4585,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>3953.0</v>
+        <v>16483.0</v>
       </c>
       <c r="C5" t="n">
-        <v>37.0</v>
+        <v>24.0</v>
       </c>
       <c r="D5" t="n">
-        <v>28.0</v>
+        <v>44.0</v>
       </c>
       <c r="E5" t="n">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
       <c r="F5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="I5" t="s">
         <v>95</v>
       </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="I5" t="s">
-        <v>40</v>
-      </c>
       <c r="J5" t="n">
         <v>1.0</v>
       </c>
       <c r="K5" t="n">
-        <v>48.72508</v>
+        <v>47.57442</v>
       </c>
       <c r="L5" t="n">
-        <v>-119.32762</v>
+        <v>-117.2196</v>
       </c>
       <c r="M5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O5" t="n">
-        <v>397152.30000000034</v>
+        <v>576334.0</v>
       </c>
       <c r="P5" t="n">
-        <v>189758.7999999998</v>
+        <v>63186.20000000038</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4635,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>14306.0</v>
+        <v>15704.0</v>
       </c>
       <c r="C6" t="n">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="D6" t="n">
-        <v>35.0</v>
+        <v>21.0</v>
       </c>
       <c r="E6" t="n">
-        <v>12.0</v>
+        <v>48.0</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
         <v>35</v>
       </c>
       <c r="H6" t="n">
-        <v>2.0</v>
+        <v>6.9</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J6" t="n">
         <v>1.0</v>
       </c>
       <c r="K6" t="n">
-        <v>48.03393</v>
+        <v>48.186266</v>
       </c>
       <c r="L6" t="n">
-        <v>-118.3586</v>
+        <v>-120.172799</v>
       </c>
       <c r="M6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O6" t="n">
-        <v>479519.00000000035</v>
+        <v>325312.0850000002</v>
       </c>
       <c r="P6" t="n">
-        <v>113732.29999999978</v>
+        <v>130489.26000000037</v>
       </c>
     </row>
     <row r="7">
@@ -4670,49 +4685,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>9026.0</v>
+        <v>12849.0</v>
       </c>
       <c r="C7" t="n">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="D7" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="n">
         <v>42.0</v>
       </c>
-      <c r="E7" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" t="n">
-        <v>5.2</v>
-      </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J7" t="n">
         <v>1.0</v>
       </c>
       <c r="K7" t="n">
-        <v>47.64466</v>
+        <v>47.81192</v>
       </c>
       <c r="L7" t="n">
-        <v>-117.47833</v>
+        <v>-118.25125</v>
       </c>
       <c r="M7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O7" t="n">
-        <v>554341.9500000001</v>
+        <v>488643.7500000001</v>
       </c>
       <c r="P7" t="n">
-        <v>70912.6000000002</v>
+        <v>89311.20000000007</v>
       </c>
     </row>
     <row r="8">
@@ -4720,49 +4735,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>7970.0</v>
+        <v>4438.0</v>
       </c>
       <c r="C8" t="n">
-        <v>22.0</v>
+        <v>25.0</v>
       </c>
       <c r="D8" t="n">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
       <c r="E8" t="n">
-        <v>5.0</v>
+        <v>36.0</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="H8" t="n">
-        <v>4.0</v>
+        <v>1.4</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="J8" t="n">
         <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>47.4216</v>
+        <v>47.61923</v>
       </c>
       <c r="L8" t="n">
-        <v>-117.78672</v>
+        <v>-117.44598</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O8" t="n">
-        <v>528128.7999999998</v>
+        <v>557091.6999999995</v>
       </c>
       <c r="P8" t="n">
-        <v>46375.999999999774</v>
+        <v>68115.30000000019</v>
       </c>
     </row>
     <row r="9">
@@ -4770,49 +4785,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>19203.0</v>
+        <v>6435.0</v>
       </c>
       <c r="C9" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="D9" t="n">
-        <v>44.0</v>
+        <v>43.0</v>
       </c>
       <c r="E9" t="n">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="H9" t="n">
-        <v>2.3</v>
+        <v>4.0</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="J9" t="n">
         <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>47.57443</v>
+        <v>47.50194</v>
       </c>
       <c r="L9" t="n">
-        <v>-117.2303</v>
+        <v>-117.43073</v>
       </c>
       <c r="M9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O9" t="n">
-        <v>575424.5</v>
+        <v>558387.9500000003</v>
       </c>
       <c r="P9" t="n">
-        <v>63187.29999999995</v>
+        <v>55213.39999999974</v>
       </c>
     </row>
     <row r="10">
@@ -4820,49 +4835,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>7640.0</v>
+        <v>6680.0</v>
       </c>
       <c r="C10" t="n">
-        <v>33.0</v>
+        <v>27.0</v>
       </c>
       <c r="D10" t="n">
-        <v>20.0</v>
+        <v>42.0</v>
       </c>
       <c r="E10" t="n">
-        <v>42.0</v>
+        <v>28.0</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H10" t="n">
-        <v>5.0</v>
+        <v>2.8</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="J10" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>48.36141</v>
+        <v>47.80711</v>
       </c>
       <c r="L10" t="n">
-        <v>-120.28798</v>
+        <v>-117.49995</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O10" t="n">
-        <v>315521.6999999996</v>
+        <v>552504.2500000001</v>
       </c>
       <c r="P10" t="n">
-        <v>149755.09999999992</v>
+        <v>88782.10000000017</v>
       </c>
     </row>
     <row r="11">
@@ -4870,49 +4885,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>20189.0</v>
+        <v>5297.0</v>
       </c>
       <c r="C11" t="n">
-        <v>36.0</v>
+        <v>40.0</v>
       </c>
       <c r="D11" t="n">
-        <v>39.0</v>
+        <v>32.0</v>
       </c>
       <c r="E11" t="n">
-        <v>29.0</v>
+        <v>15.0</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H11" t="n">
-        <v>1.7</v>
+        <v>45.6</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>48.59262</v>
+        <v>48.96464</v>
       </c>
       <c r="L11" t="n">
-        <v>-117.93376</v>
+        <v>-118.76387</v>
       </c>
       <c r="M11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O11" t="n">
-        <v>515630.39999999944</v>
+        <v>445071.0500000002</v>
       </c>
       <c r="P11" t="n">
-        <v>175188.19999999963</v>
+        <v>216110.4000000003</v>
       </c>
     </row>
   </sheetData>
@@ -4981,49 +4996,49 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>17833.0</v>
+        <v>6467.0</v>
       </c>
       <c r="C2" t="n">
-        <v>27.0</v>
+        <v>37.0</v>
       </c>
       <c r="D2" t="n">
-        <v>34.0</v>
+        <v>28.0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.0</v>
+        <v>18.0</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H2" t="n">
-        <v>8.4</v>
+        <v>1.21</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J2" t="n">
         <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>47.80776</v>
+        <v>48.69953</v>
       </c>
       <c r="L2" t="n">
-        <v>-118.46487</v>
+        <v>-119.35492</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O2" t="n">
-        <v>470486.0499999996</v>
+        <v>394831.7999999994</v>
       </c>
       <c r="P2" t="n">
-        <v>88853.6000000002</v>
+        <v>186948.3000000003</v>
       </c>
     </row>
     <row r="3">
@@ -5031,49 +5046,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>20382.0</v>
+        <v>6397.0</v>
       </c>
       <c r="C3" t="n">
-        <v>33.0</v>
+        <v>27.0</v>
       </c>
       <c r="D3" t="n">
-        <v>25.0</v>
+        <v>44.0</v>
       </c>
       <c r="E3" t="n">
         <v>36.0</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H3" t="n">
-        <v>8.5</v>
+        <v>2.63</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J3" t="n">
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>48.315757</v>
+        <v>47.79301</v>
       </c>
       <c r="L3" t="n">
-        <v>-119.635335</v>
+        <v>-117.17782</v>
       </c>
       <c r="M3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O3" t="n">
-        <v>370996.5250000002</v>
+        <v>579885.3000000003</v>
       </c>
       <c r="P3" t="n">
-        <v>144733.26999999976</v>
+        <v>87231.10000000027</v>
       </c>
     </row>
     <row r="4">
@@ -5081,49 +5096,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>4083.0</v>
+        <v>7450.0</v>
       </c>
       <c r="C4" t="n">
-        <v>38.0</v>
+        <v>23.0</v>
       </c>
       <c r="D4" t="n">
-        <v>28.0</v>
+        <v>40.0</v>
       </c>
       <c r="E4" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
       </c>
       <c r="H4" t="n">
-        <v>1.5</v>
+        <v>4.0</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J4" t="n">
         <v>1.0</v>
       </c>
       <c r="K4" t="n">
-        <v>48.8087</v>
+        <v>47.50932</v>
       </c>
       <c r="L4" t="n">
-        <v>-119.30624</v>
+        <v>-117.78204</v>
       </c>
       <c r="M4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O4" t="n">
-        <v>398969.5999999998</v>
+        <v>528526.6000000004</v>
       </c>
       <c r="P4" t="n">
-        <v>198957.0000000002</v>
+        <v>56025.200000000266</v>
       </c>
     </row>
     <row r="5">
@@ -5131,49 +5146,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>8812.0</v>
+        <v>5814.0</v>
       </c>
       <c r="C5" t="n">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
       <c r="D5" t="n">
-        <v>42.0</v>
+        <v>35.0</v>
       </c>
       <c r="E5" t="n">
-        <v>8.0</v>
+        <v>17.0</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H5" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J5" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="K5" t="n">
-        <v>47.6774</v>
+        <v>48.18556</v>
       </c>
       <c r="L5" t="n">
-        <v>-117.52063</v>
+        <v>-118.41811</v>
       </c>
       <c r="M5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O5" t="n">
-        <v>550746.4500000003</v>
+        <v>474460.65000000014</v>
       </c>
       <c r="P5" t="n">
-        <v>74513.99999999985</v>
+        <v>130411.60000000027</v>
       </c>
     </row>
     <row r="6">
@@ -5181,49 +5196,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>4952.0</v>
+        <v>20162.0</v>
       </c>
       <c r="C6" t="n">
-        <v>22.0</v>
+        <v>27.0</v>
       </c>
       <c r="D6" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="E6" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="F6" t="s">
         <v>102</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="H6" t="n">
-        <v>1.8</v>
+        <v>4.0</v>
       </c>
       <c r="I6" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="J6" t="n">
         <v>1.0</v>
       </c>
       <c r="K6" t="n">
-        <v>47.41841</v>
+        <v>47.8692</v>
       </c>
       <c r="L6" t="n">
-        <v>-117.8133</v>
+        <v>-117.63974</v>
       </c>
       <c r="M6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O6" t="n">
-        <v>525869.5000000001</v>
+        <v>540622.0999999997</v>
       </c>
       <c r="P6" t="n">
-        <v>46025.100000000166</v>
+        <v>95611.99999999993</v>
       </c>
     </row>
     <row r="7">
@@ -5231,49 +5246,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>10283.0</v>
+        <v>16566.0</v>
       </c>
       <c r="C7" t="n">
-        <v>40.0</v>
+        <v>37.0</v>
       </c>
       <c r="D7" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="E7" t="n">
-        <v>14.0</v>
+        <v>17.0</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H7" t="n">
-        <v>5.4</v>
+        <v>17.1</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J7" t="n">
         <v>1.0</v>
       </c>
       <c r="K7" t="n">
-        <v>48.97205</v>
+        <v>48.70324</v>
       </c>
       <c r="L7" t="n">
-        <v>-119.37709</v>
+        <v>-119.20657</v>
       </c>
       <c r="M7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O7" t="n">
-        <v>392947.3500000004</v>
+        <v>407441.55000000005</v>
       </c>
       <c r="P7" t="n">
-        <v>216925.50000000032</v>
+        <v>187356.4000000001</v>
       </c>
     </row>
     <row r="8">
@@ -5281,49 +5296,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>14158.0</v>
+        <v>5173.0</v>
       </c>
       <c r="C8" t="n">
-        <v>23.0</v>
+        <v>38.0</v>
       </c>
       <c r="D8" t="n">
-        <v>43.0</v>
+        <v>33.0</v>
       </c>
       <c r="E8" t="n">
-        <v>4.0</v>
+        <v>15.0</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="H8" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="J8" t="n">
         <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>47.51623</v>
+        <v>48.78575</v>
       </c>
       <c r="L8" t="n">
-        <v>-117.3871</v>
+        <v>-118.61762</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O8" t="n">
-        <v>562096.4999999997</v>
+        <v>457502.2999999998</v>
       </c>
       <c r="P8" t="n">
-        <v>56785.30000000002</v>
+        <v>196432.50000000003</v>
       </c>
     </row>
     <row r="9">
@@ -5331,49 +5346,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>13947.0</v>
+        <v>9944.0</v>
       </c>
       <c r="C9" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="D9" t="n">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
       <c r="E9" t="n">
-        <v>22.0</v>
+        <v>17.0</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
         <v>37</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>1.0</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K9" t="n">
-        <v>47.73827</v>
+        <v>47.925999</v>
       </c>
       <c r="L9" t="n">
-        <v>-117.36035</v>
+        <v>-117.78911</v>
       </c>
       <c r="M9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O9" t="n">
-        <v>564370.2500000002</v>
+        <v>527925.6500000005</v>
       </c>
       <c r="P9" t="n">
-        <v>81209.7</v>
+        <v>101859.88999999971</v>
       </c>
     </row>
     <row r="10">
@@ -5381,49 +5396,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>400.0</v>
+        <v>19162.0</v>
       </c>
       <c r="C10" t="n">
-        <v>32.0</v>
+        <v>38.0</v>
       </c>
       <c r="D10" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="E10" t="n">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H10" t="n">
-        <v>2.0</v>
+        <v>1.5</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>48.25798</v>
+        <v>48.7642</v>
       </c>
       <c r="L10" t="n">
-        <v>-118.04835</v>
+        <v>-117.94194</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O10" t="n">
-        <v>505890.25000000006</v>
+        <v>514935.0999999998</v>
       </c>
       <c r="P10" t="n">
-        <v>138377.80000000037</v>
+        <v>194062.00000000026</v>
       </c>
     </row>
     <row r="11">
@@ -5431,49 +5446,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>841.0</v>
+        <v>4952.0</v>
       </c>
       <c r="C11" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="D11" t="n">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
       <c r="E11" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="I11" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>47.69154</v>
+        <v>47.41841</v>
       </c>
       <c r="L11" t="n">
-        <v>-117.33859</v>
+        <v>-117.8133</v>
       </c>
       <c r="M11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O11" t="n">
-        <v>566219.8500000003</v>
+        <v>525869.5000000001</v>
       </c>
       <c r="P11" t="n">
-        <v>76069.40000000037</v>
+        <v>46025.100000000166</v>
       </c>
     </row>
   </sheetData>
@@ -5542,49 +5557,49 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>13297.0</v>
+        <v>17642.0</v>
       </c>
       <c r="C2" t="n">
-        <v>37.0</v>
+        <v>40.0</v>
       </c>
       <c r="D2" t="n">
-        <v>28.0</v>
+        <v>32.0</v>
       </c>
       <c r="E2" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2" t="n">
-        <v>1.0</v>
+        <v>1.9</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J2" t="n">
         <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>48.71783</v>
+        <v>48.99725</v>
       </c>
       <c r="L2" t="n">
-        <v>-119.31125</v>
+        <v>-118.78026</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O2" t="n">
-        <v>398543.7499999999</v>
+        <v>443677.90000000014</v>
       </c>
       <c r="P2" t="n">
-        <v>188961.29999999993</v>
+        <v>219697.50000000012</v>
       </c>
     </row>
     <row r="3">
@@ -5592,49 +5607,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>12203.0</v>
+        <v>12904.0</v>
       </c>
       <c r="C3" t="n">
-        <v>35.0</v>
+        <v>38.0</v>
       </c>
       <c r="D3" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="E3" t="n">
         <v>21.0</v>
       </c>
-      <c r="E3" t="n">
-        <v>19.0</v>
-      </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H3" t="n">
-        <v>11.1</v>
+        <v>25.0</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J3" t="n">
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>48.5213</v>
+        <v>48.77869</v>
       </c>
       <c r="L3" t="n">
-        <v>-120.2657</v>
+        <v>-118.65034</v>
       </c>
       <c r="M3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O3" t="n">
-        <v>317415.5000000004</v>
+        <v>454721.10000000003</v>
       </c>
       <c r="P3" t="n">
-        <v>167342.99999999962</v>
+        <v>195655.89999999973</v>
       </c>
     </row>
     <row r="4">
@@ -5642,49 +5657,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>9959.0</v>
+        <v>9239.0</v>
       </c>
       <c r="C4" t="n">
-        <v>33.0</v>
+        <v>32.0</v>
       </c>
       <c r="D4" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="E4" t="n">
-        <v>27.0</v>
+        <v>19.0</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H4" t="n">
-        <v>6.1</v>
+        <v>21.0</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="J4" t="n">
         <v>1.0</v>
       </c>
       <c r="K4" t="n">
-        <v>48.33632</v>
+        <v>48.25389</v>
       </c>
       <c r="L4" t="n">
-        <v>-117.36192</v>
+        <v>-117.28711</v>
       </c>
       <c r="M4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O4" t="n">
-        <v>564236.8000000002</v>
+        <v>570595.6500000001</v>
       </c>
       <c r="P4" t="n">
-        <v>146995.20000000007</v>
+        <v>137927.89999999982</v>
       </c>
     </row>
     <row r="5">
@@ -5692,49 +5707,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>6452.0</v>
+        <v>10943.0</v>
       </c>
       <c r="C5" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="D5" t="n">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="E5" t="n">
-        <v>25.0</v>
+        <v>36.0</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H5" t="n">
-        <v>2.1</v>
+        <v>9.5</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="J5" t="n">
         <v>1.0</v>
       </c>
       <c r="K5" t="n">
-        <v>47.63015</v>
+        <v>47.34913</v>
       </c>
       <c r="L5" t="n">
-        <v>-117.4461</v>
+        <v>-117.56639</v>
       </c>
       <c r="M5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O5" t="n">
-        <v>557081.4999999999</v>
+        <v>546856.8500000001</v>
       </c>
       <c r="P5" t="n">
-        <v>69316.50000000004</v>
+        <v>38404.300000000265</v>
       </c>
     </row>
     <row r="6">
@@ -5742,49 +5757,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>11781.0</v>
+        <v>16609.0</v>
       </c>
       <c r="C6" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="D6" t="n">
         <v>26.0</v>
       </c>
-      <c r="D6" t="n">
-        <v>40.0</v>
-      </c>
       <c r="E6" t="n">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="F6" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6" t="n">
         <v>2.0</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J6" t="n">
         <v>1.0</v>
       </c>
       <c r="K6" t="n">
-        <v>47.75764</v>
+        <v>48.94639</v>
       </c>
       <c r="L6" t="n">
-        <v>-117.74683</v>
+        <v>-119.60174</v>
       </c>
       <c r="M6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O6" t="n">
-        <v>531519.4499999997</v>
+        <v>373852.09999999945</v>
       </c>
       <c r="P6" t="n">
-        <v>83340.40000000023</v>
+        <v>214102.9000000001</v>
       </c>
     </row>
     <row r="7">
@@ -5792,49 +5807,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>9239.0</v>
+        <v>7071.0</v>
       </c>
       <c r="C7" t="n">
-        <v>32.0</v>
+        <v>27.0</v>
       </c>
       <c r="D7" t="n">
-        <v>44.0</v>
+        <v>39.0</v>
       </c>
       <c r="E7" t="n">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
       <c r="F7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="H7" t="n">
-        <v>21.0</v>
+        <v>1.6</v>
       </c>
       <c r="I7" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="J7" t="n">
         <v>1.0</v>
       </c>
       <c r="K7" t="n">
-        <v>48.25389</v>
+        <v>47.83393</v>
       </c>
       <c r="L7" t="n">
-        <v>-117.28711</v>
+        <v>-117.82912</v>
       </c>
       <c r="M7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O7" t="n">
-        <v>570595.6500000001</v>
+        <v>524524.7999999997</v>
       </c>
       <c r="P7" t="n">
-        <v>137927.89999999982</v>
+        <v>91732.30000000025</v>
       </c>
     </row>
     <row r="8">
@@ -5842,49 +5857,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>8617.0</v>
+        <v>15164.0</v>
       </c>
       <c r="C8" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="E8" t="n">
         <v>32.0</v>
       </c>
-      <c r="D8" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>11.0</v>
-      </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="H8" t="n">
-        <v>6.6</v>
+        <v>5.0</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="J8" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>48.28812</v>
+        <v>48.14212</v>
       </c>
       <c r="L8" t="n">
-        <v>-119.92559</v>
+        <v>-118.55221</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O8" t="n">
-        <v>346324.85000000003</v>
+        <v>463062.1499999998</v>
       </c>
       <c r="P8" t="n">
-        <v>141693.19999999992</v>
+        <v>125633.19999999984</v>
       </c>
     </row>
     <row r="9">
@@ -5892,49 +5907,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>5307.0</v>
+        <v>11655.0</v>
       </c>
       <c r="C9" t="n">
-        <v>34.0</v>
+        <v>37.0</v>
       </c>
       <c r="D9" t="n">
-        <v>22.0</v>
+        <v>36.0</v>
       </c>
       <c r="E9" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H9" t="n">
-        <v>2.0</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="J9" t="n">
         <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>48.45873</v>
+        <v>48.71681</v>
       </c>
       <c r="L9" t="n">
-        <v>-120.09244</v>
+        <v>-118.19292</v>
       </c>
       <c r="M9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O9" t="n">
-        <v>332142.6000000003</v>
+        <v>493601.79999999993</v>
       </c>
       <c r="P9" t="n">
-        <v>160460.3000000003</v>
+        <v>188849.10000000027</v>
       </c>
     </row>
     <row r="10">
@@ -5942,49 +5957,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>10892.0</v>
+        <v>14458.0</v>
       </c>
       <c r="C10" t="n">
-        <v>38.0</v>
+        <v>36.0</v>
       </c>
       <c r="D10" t="n">
-        <v>28.0</v>
+        <v>37.0</v>
       </c>
       <c r="E10" t="n">
-        <v>28.0</v>
+        <v>23.0</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="H10" t="n">
-        <v>1.74</v>
+        <v>3.25</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>48.75772</v>
+        <v>48.59775</v>
       </c>
       <c r="L10" t="n">
-        <v>-119.30013</v>
+        <v>-118.10746</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O10" t="n">
-        <v>399488.95000000036</v>
+        <v>500865.89999999973</v>
       </c>
       <c r="P10" t="n">
-        <v>193349.1999999999</v>
+        <v>175752.49999999977</v>
       </c>
     </row>
     <row r="11">
@@ -5992,49 +6007,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>20094.0</v>
+        <v>12013.0</v>
       </c>
       <c r="C11" t="n">
-        <v>38.0</v>
+        <v>29.0</v>
       </c>
       <c r="D11" t="n">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
       <c r="E11" t="n">
-        <v>27.0</v>
+        <v>32.0</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H11" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>48.77674</v>
+        <v>47.96508</v>
       </c>
       <c r="L11" t="n">
-        <v>-117.74761</v>
+        <v>-117.39563</v>
       </c>
       <c r="M11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O11" t="n">
-        <v>531453.1500000005</v>
+        <v>561371.4500000003</v>
       </c>
       <c r="P11" t="n">
-        <v>195441.39999999964</v>
+        <v>106158.80000000005</v>
       </c>
     </row>
   </sheetData>
